--- a/docs/Decodifiche/11_dec_stato_evento.xlsx
+++ b/docs/Decodifiche/11_dec_stato_evento.xlsx
@@ -102,7 +102,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,30 +110,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.33984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.3359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>

--- a/docs/Decodifiche/11_dec_stato_evento.xlsx
+++ b/docs/Decodifiche/11_dec_stato_evento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>GENERATO DA SISTEMA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>APPROVATO</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -127,7 +136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -259,6 +268,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/11_dec_stato_evento.xlsx
+++ b/docs/Decodifiche/11_dec_stato_evento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>2000-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>RIFIUTATA</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -285,6 +291,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/11_dec_stato_evento.xlsx
+++ b/docs/Decodifiche/11_dec_stato_evento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>RIFIUTATA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CANCELLATO</t>
+  </si>
+  <si>
+    <t>2023-12-20 14:57:15.0</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -308,6 +317,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/11_dec_stato_evento.xlsx
+++ b/docs/Decodifiche/11_dec_stato_evento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>2023-12-20 14:57:15.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>INEFFICACE</t>
+  </si>
+  <si>
+    <t>2024-01-23 09:57:09.0</t>
   </si>
 </sst>
 </file>
@@ -151,13 +160,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.3359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
@@ -334,6 +343,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/11_dec_stato_evento.xlsx
+++ b/docs/Decodifiche/11_dec_stato_evento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>2024-01-23 09:57:09.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>FIRMATO PER CONFORMITA</t>
+  </si>
+  <si>
+    <t>2000-10-01 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -160,14 +169,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.3359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
@@ -360,6 +369,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
